--- a/productsID.xlsx
+++ b/productsID.xlsx
@@ -24405,8 +24405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S1583"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" workbookViewId="0">
-      <selection activeCell="Q54" sqref="Q54"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
